--- a/table .xlsx
+++ b/table .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E21C61E-78D2-764F-88B6-2D4EF2599D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46527F07-5A67-2344-8DA6-CFD9C5CBC4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1680" yWindow="460" windowWidth="24440" windowHeight="12900" xr2:uid="{58FB3972-D23F-A744-8BED-DAE7F5ECC7A3}"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="24440" windowHeight="12900" xr2:uid="{58FB3972-D23F-A744-8BED-DAE7F5ECC7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Biomass</t>
   </si>
@@ -99,9 +99,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Exotic species</t>
   </si>
 </sst>
 </file>
@@ -469,19 +466,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F7F38-A92F-254C-8020-B4F9E1E450E4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93">
+    <row r="1" spans="1:5" ht="93">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -506,9 +500,8 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -519,9 +512,8 @@
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -532,9 +524,8 @@
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -545,9 +536,8 @@
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -555,9 +545,8 @@
         <v>1</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -568,16 +557,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -585,9 +572,8 @@
         <v>1</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -595,14 +581,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="19">
+    </row>
+    <row r="11" spans="1:5" ht="19">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
